--- a/athena/solvers_test/solvers_data.xlsx
+++ b/athena/solvers_test/solvers_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School\reu2024\research\summer2024\athena\solvers_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9D610B-2E7D-4160-A8A2-53F7DC4777F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7AAC91-77B8-431E-9A88-27EC45F3C733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="79">
   <si>
     <t>Solver</t>
   </si>
@@ -276,6 +276,9 @@
   <si>
     <t>LKH (min)</t>
   </si>
+  <si>
+    <t>VL2</t>
+  </si>
 </sst>
 </file>
 
@@ -384,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -405,10 +408,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6900,7 +6901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -7385,7 +7386,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7785,8 +7786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336007FF-B725-4FDB-A779-08F0BDF0F2AB}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8101,7 +8102,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8171,8 +8172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D495703-40C5-47D1-B0BF-6E8D4EEFDD9F}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8497,7 +8498,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C21" s="11"/>
     </row>
@@ -8707,10 +8708,10 @@
         <f>B2/60</f>
         <v>305.2332780166667</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>777.73145999999895</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <f>D2/60</f>
         <v>12.962190999999983</v>
       </c>
@@ -8726,10 +8727,10 @@
         <f t="shared" ref="C3:C6" si="0">B3/60</f>
         <v>285.72820371666501</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>729.58948399999895</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <f t="shared" ref="E3:E6" si="1">D3/60</f>
         <v>12.159824733333316</v>
       </c>
@@ -8745,10 +8746,10 @@
         <f t="shared" si="0"/>
         <v>271.72193305000002</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>641.85755900000004</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <f t="shared" si="1"/>
         <v>10.697625983333333</v>
       </c>
@@ -8764,10 +8765,10 @@
         <f t="shared" si="0"/>
         <v>144.62353689999983</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>582.01138400000002</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <f t="shared" si="1"/>
         <v>9.7001897333333336</v>
       </c>
@@ -8783,10 +8784,10 @@
         <f t="shared" si="0"/>
         <v>155.89526248333334</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>442.90378600000003</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <f t="shared" si="1"/>
         <v>7.381729766666667</v>
       </c>
@@ -8805,10 +8806,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="18">
         <v>2088.9235389999899</v>
       </c>
       <c r="C1">
@@ -8817,10 +8818,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="19">
         <v>2081.2237829999899</v>
       </c>
       <c r="C2">
@@ -8829,10 +8830,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>1898.131781</v>
       </c>
       <c r="C3">
@@ -8841,10 +8842,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>1809.721796</v>
       </c>
       <c r="C4">
@@ -8853,10 +8854,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>1467.7952680000001</v>
       </c>
       <c r="C5">
